--- a/data/hotels_by_city/Houston/Houston_shard_608.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_608.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d609502-Reviews-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,915 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r528181690-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>609502</t>
+  </si>
+  <si>
+    <t>528181690</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i have been in Houston for work and Staybridge suites was the perfect place to be. i may cook my food with all facility available such as laundry machines and gym and the backyard was awesome and quiet </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r504526010-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504526010</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Poor Management</t>
+  </si>
+  <si>
+    <t>I stayed at this extended stay hotel for a few months. I booked via a third-party site which became a real issue for the management, which ultimately made me check out of the hotel in July.
+Issues with the hotel started within the first week of checking in. My credit card was billed for three different erroneous amounts despite prepaying via a third-party site. It took a few weeks for the hotel to credit those erroneous amounts back to my card.  Next, there was a night when SIX vehicles were broken into in one night. The management offered the victims no recourse and could not provide them with video footage from the security cameras, because none of the security cameras outside or inside the hotel work. After that, a security guard was hired who I personally had to wake up, because he was asleep in his car while on duty. One day my keys did not work, so I went to the front desk to have them activated. Before I could get them activated, I was ambushed by the general manager and manager begging me to stop using a third-party booking site for my stay. They begged me to book and pay directly through the hotel. I found this to be extremely unprofessional. The lack of professionalism was also observed when the hotel manager barged into my room in order to have a verbal argument with the housekeeper while I...I stayed at this extended stay hotel for a few months. I booked via a third-party site which became a real issue for the management, which ultimately made me check out of the hotel in July.Issues with the hotel started within the first week of checking in. My credit card was billed for three different erroneous amounts despite prepaying via a third-party site. It took a few weeks for the hotel to credit those erroneous amounts back to my card.  Next, there was a night when SIX vehicles were broken into in one night. The management offered the victims no recourse and could not provide them with video footage from the security cameras, because none of the security cameras outside or inside the hotel work. After that, a security guard was hired who I personally had to wake up, because he was asleep in his car while on duty. One day my keys did not work, so I went to the front desk to have them activated. Before I could get them activated, I was ambushed by the general manager and manager begging me to stop using a third-party booking site for my stay. They begged me to book and pay directly through the hotel. I found this to be extremely unprofessional. The lack of professionalism was also observed when the hotel manager barged into my room in order to have a verbal argument with the housekeeper while I was sitting in the room. The housekeeper stormed out and I had to go down to the front desk to ask if someone was coming back to clean my room. Another day while I was there, a housekeeper passed out in front of me. I immediately called for help and cared for her until she was lucid and the paramedics arrived. Throughout this ordeal, the general manager and manager did not come to check on the ill housekeeper. Moreover, their male food preparer would often be observed eating off of the buffet while he was handling and replenishing food items during breakfast and evening social. Management team would frequently park in the parking spots designated for individuals with disabilities. Also, the adaptive pool device for individuals with disabilities did not work. Finally, I had an issue with extremely noisy guests. I addressed it with the management and they basically told me that there was nothing they could do for the inconvenience, because I booked through a third-party. If I was willing to book directly through the hotel, then they'd have the ability to do more to compensate me for the severely noisy guests. Overall, the hotel management appears to be based on nepotism and lack professionalism and overall concern for their guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this extended stay hotel for a few months. I booked via a third-party site which became a real issue for the management, which ultimately made me check out of the hotel in July.
+Issues with the hotel started within the first week of checking in. My credit card was billed for three different erroneous amounts despite prepaying via a third-party site. It took a few weeks for the hotel to credit those erroneous amounts back to my card.  Next, there was a night when SIX vehicles were broken into in one night. The management offered the victims no recourse and could not provide them with video footage from the security cameras, because none of the security cameras outside or inside the hotel work. After that, a security guard was hired who I personally had to wake up, because he was asleep in his car while on duty. One day my keys did not work, so I went to the front desk to have them activated. Before I could get them activated, I was ambushed by the general manager and manager begging me to stop using a third-party booking site for my stay. They begged me to book and pay directly through the hotel. I found this to be extremely unprofessional. The lack of professionalism was also observed when the hotel manager barged into my room in order to have a verbal argument with the housekeeper while I...I stayed at this extended stay hotel for a few months. I booked via a third-party site which became a real issue for the management, which ultimately made me check out of the hotel in July.Issues with the hotel started within the first week of checking in. My credit card was billed for three different erroneous amounts despite prepaying via a third-party site. It took a few weeks for the hotel to credit those erroneous amounts back to my card.  Next, there was a night when SIX vehicles were broken into in one night. The management offered the victims no recourse and could not provide them with video footage from the security cameras, because none of the security cameras outside or inside the hotel work. After that, a security guard was hired who I personally had to wake up, because he was asleep in his car while on duty. One day my keys did not work, so I went to the front desk to have them activated. Before I could get them activated, I was ambushed by the general manager and manager begging me to stop using a third-party booking site for my stay. They begged me to book and pay directly through the hotel. I found this to be extremely unprofessional. The lack of professionalism was also observed when the hotel manager barged into my room in order to have a verbal argument with the housekeeper while I was sitting in the room. The housekeeper stormed out and I had to go down to the front desk to ask if someone was coming back to clean my room. Another day while I was there, a housekeeper passed out in front of me. I immediately called for help and cared for her until she was lucid and the paramedics arrived. Throughout this ordeal, the general manager and manager did not come to check on the ill housekeeper. Moreover, their male food preparer would often be observed eating off of the buffet while he was handling and replenishing food items during breakfast and evening social. Management team would frequently park in the parking spots designated for individuals with disabilities. Also, the adaptive pool device for individuals with disabilities did not work. Finally, I had an issue with extremely noisy guests. I addressed it with the management and they basically told me that there was nothing they could do for the inconvenience, because I booked through a third-party. If I was willing to book directly through the hotel, then they'd have the ability to do more to compensate me for the severely noisy guests. Overall, the hotel management appears to be based on nepotism and lack professionalism and overall concern for their guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r482084358-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482084358</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>A lovely place to stay</t>
+  </si>
+  <si>
+    <t>I have spent here a couple of weeks for a business travel in Houston. Simply fantastic. The hotel is placed not far from the highway so it is easy to join but silent at the same time. Staff is super nice available day and night for every needs and really friendly. Rooms are huge. Crazily huge. I had a kind of living room, a small kitchen a bedroom and a big bathroom: it was ideal for a stay of 15days. The breakfast was good: there were not a big choice of sweet stuff but was okay. Well done. I loved the period spent there. Really suggested.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r468748340-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468748340</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confortable </t>
+  </si>
+  <si>
+    <t>Stayed here for a week...staff is friendly...rooms are quite large with a queen size bed, fully equipped kitchen, iron and iron board.The only two minuses i could find were: 1. The climate control unit - too loud and it is placed 20 inches from the bed....2. Breakfast is not so diverse as i could find at other mid-range hotels.Overall - good experience - good for business travel also - they have a shuttle which is free for a limited distance (i might be wrong - but i remember being up to 5 miles)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r457404574-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457404574</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Hotel has terrible policies and only 1 elevator</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times and am now officially sick of it. There are several problems, first it only has a single elevator despite being large and spreading, so you have to walk forever to get to a room. The large room was 500 bucks, which was too much I think. I've seen nicer rooms for about 350ish. The pool is cold and outside. Unusable. No towels available. Dirty. The workout room has no audio on the TV, no towels. Ducks. The room was okay but nothing amazing and not a good value. The service was good overall except with the corporate. I signed up for their IHG rewards program and it crashes and you cannot redeem the points. Calling them is worthless. The breakfast ducks. The parking is spread out and has no security. Finally and most annoying, there are stickers not allowing licensed people to carry their Firearms concealed in the hotel. I always carry as a matter of prudence and it has saved my bacon more than once. So while they have every right to have this policy, I have every right to go to another hotel. Over-priced, terrible amenities and against legal concealed carry? No thanks. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded February 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times and am now officially sick of it. There are several problems, first it only has a single elevator despite being large and spreading, so you have to walk forever to get to a room. The large room was 500 bucks, which was too much I think. I've seen nicer rooms for about 350ish. The pool is cold and outside. Unusable. No towels available. Dirty. The workout room has no audio on the TV, no towels. Ducks. The room was okay but nothing amazing and not a good value. The service was good overall except with the corporate. I signed up for their IHG rewards program and it crashes and you cannot redeem the points. Calling them is worthless. The breakfast ducks. The parking is spread out and has no security. Finally and most annoying, there are stickers not allowing licensed people to carry their Firearms concealed in the hotel. I always carry as a matter of prudence and it has saved my bacon more than once. So while they have every right to have this policy, I have every right to go to another hotel. Over-priced, terrible amenities and against legal concealed carry? No thanks. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r440946339-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440946339</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>BEDBUGS!!!!!</t>
+  </si>
+  <si>
+    <t>we stayed in this hotel 3 nights in mid Oct. Service/food fine; our room refrigerators ice maker wasnt working and food not cold in fridge; reported twice but they never came to check so could only get ice during breakfast hours from the soda machine before it was locked up until the next morning. There was 1/2 of solid ice in bottom of freezer leading us to believe a line was clogged but although hotel practically empty never offered us another room. Maybe because we had a Priceline discounted room!!
+ The main reason for me taking the time to review is that on the 3rd morning as we were about to leave I discovered several small bites on my arms; within a few hours several more appeared on my legs as well.  A medical professional in my home town confirmed that they were BEDBUG BITES so I called the hotel to report. I got a lot of response about all the training and checking the staff did daily so this should not be. The woman did tell me she would go check the room and call me back; she did but said there were already guests checked in and they said they were fine so she didn't even check!!!! Said their pest control company would be notified and she'd get back to me......I never hear from them (probably because the found I was correct!!). And apparently didn't care that refrigerator/freezer...we stayed in this hotel 3 nights in mid Oct. Service/food fine; our room refrigerators ice maker wasnt working and food not cold in fridge; reported twice but they never came to check so could only get ice during breakfast hours from the soda machine before it was locked up until the next morning. There was 1/2 of solid ice in bottom of freezer leading us to believe a line was clogged but although hotel practically empty never offered us another room. Maybe because we had a Priceline discounted room!! The main reason for me taking the time to review is that on the 3rd morning as we were about to leave I discovered several small bites on my arms; within a few hours several more appeared on my legs as well.  A medical professional in my home town confirmed that they were BEDBUG BITES so I called the hotel to report. I got a lot of response about all the training and checking the staff did daily so this should not be. The woman did tell me she would go check the room and call me back; she did but said there were already guests checked in and they said they were fine so she didn't even check!!!! Said their pest control company would be notified and she'd get back to me......I never hear from them (probably because the found I was correct!!). And apparently didn't care that refrigerator/freezer was broken as they immediately checked in another guest.This was an extremely disappointing stay as my brother has stayed at the Staybridge a couple of miles away from this location on a regular basis and highly recommended these hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>we stayed in this hotel 3 nights in mid Oct. Service/food fine; our room refrigerators ice maker wasnt working and food not cold in fridge; reported twice but they never came to check so could only get ice during breakfast hours from the soda machine before it was locked up until the next morning. There was 1/2 of solid ice in bottom of freezer leading us to believe a line was clogged but although hotel practically empty never offered us another room. Maybe because we had a Priceline discounted room!!
+ The main reason for me taking the time to review is that on the 3rd morning as we were about to leave I discovered several small bites on my arms; within a few hours several more appeared on my legs as well.  A medical professional in my home town confirmed that they were BEDBUG BITES so I called the hotel to report. I got a lot of response about all the training and checking the staff did daily so this should not be. The woman did tell me she would go check the room and call me back; she did but said there were already guests checked in and they said they were fine so she didn't even check!!!! Said their pest control company would be notified and she'd get back to me......I never hear from them (probably because the found I was correct!!). And apparently didn't care that refrigerator/freezer...we stayed in this hotel 3 nights in mid Oct. Service/food fine; our room refrigerators ice maker wasnt working and food not cold in fridge; reported twice but they never came to check so could only get ice during breakfast hours from the soda machine before it was locked up until the next morning. There was 1/2 of solid ice in bottom of freezer leading us to believe a line was clogged but although hotel practically empty never offered us another room. Maybe because we had a Priceline discounted room!! The main reason for me taking the time to review is that on the 3rd morning as we were about to leave I discovered several small bites on my arms; within a few hours several more appeared on my legs as well.  A medical professional in my home town confirmed that they were BEDBUG BITES so I called the hotel to report. I got a lot of response about all the training and checking the staff did daily so this should not be. The woman did tell me she would go check the room and call me back; she did but said there were already guests checked in and they said they were fine so she didn't even check!!!! Said their pest control company would be notified and she'd get back to me......I never hear from them (probably because the found I was correct!!). And apparently didn't care that refrigerator/freezer was broken as they immediately checked in another guest.This was an extremely disappointing stay as my brother has stayed at the Staybridge a couple of miles away from this location on a regular basis and highly recommended these hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r426970502-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426970502</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Extremely comfortable place to stay. It was very clean and comfortable, with great beds, high quality linens and thick towels. The staff was very friendly and willing to please. The grounds are really nice and the breakfast was great. Since it is an extended stay, it was really nice having a full size fridge, with a kitchen completely stocked with anything you might need. They really take care of you here.  Absolutely no complaints, I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r426516457-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426516457</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Warm and charming</t>
+  </si>
+  <si>
+    <t>Friendly greeting the when we walked in. Warm and nice room make a good sleep.A little kitchen in the suite that has almost everything you need for cooking, also a mid size fridge. Would recommend for stay when visit Houston.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r399047137-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399047137</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Good hotel. Far from center</t>
+  </si>
+  <si>
+    <t>The hotel is very nice. Rooms are good, service is nice. Breakfast was poor but enough. Good for golf fans. Rooms are quite but noisy. You can here all movements from the upper floor. Far from any malls and shopping centres</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r378773104-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378773104</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Great, Clean Spacious room</t>
+  </si>
+  <si>
+    <t>Need room to spread out while traveling? This is it. TX could be bigger but I was working anyway. Full kitchen, Couch and great bed. These guys did a great job on this property for what they charge. Lots of light and away from all the traffic but close to everything in Houston.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r378149089-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378149089</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>A couple nights at the horse track.</t>
+  </si>
+  <si>
+    <t>Nice suite near the horse track. The room came with a kitchenette. We stayed two nights for an average of $109 a night. Hot breakfast included. Worth the money. There were a number of places to dine close to the hotel.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r372488817-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372488817</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>I was in town for one night with my GF on some business nearby. The location is not the greatest if you're looking to explore Houston, but it was perfect for us. We did not book this hotel directly through IHG, but my platinum status was recognized anyways and I was still given a complimentary upgrade! We got to stay in one of the suites and I must say it is very spacious and homey with TV's in both the living room and the bedroom along with a full kitchen. Our bed was very comfortable and I got a great night's sleep as I had to wake up at 5AM the next morning. That brings me to the next point, the breakfast is very good. It does not have the biggest selection in the world, but they did have hot and cold items that were constantly refilled by the charming staff. Selections included scrambled eggs, ham, fresh fruit, bagels/english muffins, and more. I would definitely recommend a stay at this hotel if you have business/family nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in town for one night with my GF on some business nearby. The location is not the greatest if you're looking to explore Houston, but it was perfect for us. We did not book this hotel directly through IHG, but my platinum status was recognized anyways and I was still given a complimentary upgrade! We got to stay in one of the suites and I must say it is very spacious and homey with TV's in both the living room and the bedroom along with a full kitchen. Our bed was very comfortable and I got a great night's sleep as I had to wake up at 5AM the next morning. That brings me to the next point, the breakfast is very good. It does not have the biggest selection in the world, but they did have hot and cold items that were constantly refilled by the charming staff. Selections included scrambled eggs, ham, fresh fruit, bagels/english muffins, and more. I would definitely recommend a stay at this hotel if you have business/family nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r357302118-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357302118</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>nightmare from the start</t>
+  </si>
+  <si>
+    <t>Let me just say first that I am NOT by nature a complainer, but I do believe that when I pay for something I should get it! I Booked a room for two adults and two kids through a third party site. When I arrived at night, was told that there is a problem that they don't have the room available that was booked and that I would need to PAY $20 TO UPGRADE. (was also told that the same thing happened to the person right before me) I have traveled internationally and stayed in MANY hotels and have NEVER had anyone tell me this before. It is not MY FAULT that you don't have the room that I booked and paid for - you should have upgraded me for free. When I refused to pay for an upgrade I asked if they could put me in another one of their hotels near by I was told that was not a possibility. I was traveling with a teenager and three kids, we were exhausted. Finally he said that he didn't want to give me any trouble so he put us in 'the only room the system would let him' (I find that VERY hard to believe) which was a room with a queen bed and a couch. So we went to the room, only to find that the lotion and hand soap had been opened and used, the toilet was...Let me just say first that I am NOT by nature a complainer, but I do believe that when I pay for something I should get it! I Booked a room for two adults and two kids through a third party site. When I arrived at night, was told that there is a problem that they don't have the room available that was booked and that I would need to PAY $20 TO UPGRADE. (was also told that the same thing happened to the person right before me) I have traveled internationally and stayed in MANY hotels and have NEVER had anyone tell me this before. It is not MY FAULT that you don't have the room that I booked and paid for - you should have upgraded me for free. When I refused to pay for an upgrade I asked if they could put me in another one of their hotels near by I was told that was not a possibility. I was traveling with a teenager and three kids, we were exhausted. Finally he said that he didn't want to give me any trouble so he put us in 'the only room the system would let him' (I find that VERY hard to believe) which was a room with a queen bed and a couch. So we went to the room, only to find that the lotion and hand soap had been opened and used, the toilet was not clean. So only because i had exhausted small children with me and i was so over their poor customer service we slept there. I told the manager the next morning that the room was not even fully clean. She said she was sorry and gave me a 10$ starbucks gift card - as if Starbucks is going to make it all better???? The only good thing about this place is that the breakfast was good, my husband and I travel ALOT for business - I will never again stay at an IHG hotel brand, we stayed at two on this trip and both had VERY POOR customer service. I HOPE THIS REVIEW WAS WORTH THE 20$ YOU INSISTED I PAY FOR CUSTOMER SERVICE.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Let me just say first that I am NOT by nature a complainer, but I do believe that when I pay for something I should get it! I Booked a room for two adults and two kids through a third party site. When I arrived at night, was told that there is a problem that they don't have the room available that was booked and that I would need to PAY $20 TO UPGRADE. (was also told that the same thing happened to the person right before me) I have traveled internationally and stayed in MANY hotels and have NEVER had anyone tell me this before. It is not MY FAULT that you don't have the room that I booked and paid for - you should have upgraded me for free. When I refused to pay for an upgrade I asked if they could put me in another one of their hotels near by I was told that was not a possibility. I was traveling with a teenager and three kids, we were exhausted. Finally he said that he didn't want to give me any trouble so he put us in 'the only room the system would let him' (I find that VERY hard to believe) which was a room with a queen bed and a couch. So we went to the room, only to find that the lotion and hand soap had been opened and used, the toilet was...Let me just say first that I am NOT by nature a complainer, but I do believe that when I pay for something I should get it! I Booked a room for two adults and two kids through a third party site. When I arrived at night, was told that there is a problem that they don't have the room available that was booked and that I would need to PAY $20 TO UPGRADE. (was also told that the same thing happened to the person right before me) I have traveled internationally and stayed in MANY hotels and have NEVER had anyone tell me this before. It is not MY FAULT that you don't have the room that I booked and paid for - you should have upgraded me for free. When I refused to pay for an upgrade I asked if they could put me in another one of their hotels near by I was told that was not a possibility. I was traveling with a teenager and three kids, we were exhausted. Finally he said that he didn't want to give me any trouble so he put us in 'the only room the system would let him' (I find that VERY hard to believe) which was a room with a queen bed and a couch. So we went to the room, only to find that the lotion and hand soap had been opened and used, the toilet was not clean. So only because i had exhausted small children with me and i was so over their poor customer service we slept there. I told the manager the next morning that the room was not even fully clean. She said she was sorry and gave me a 10$ starbucks gift card - as if Starbucks is going to make it all better???? The only good thing about this place is that the breakfast was good, my husband and I travel ALOT for business - I will never again stay at an IHG hotel brand, we stayed at two on this trip and both had VERY POOR customer service. I HOPE THIS REVIEW WAS WORTH THE 20$ YOU INSISTED I PAY FOR CUSTOMER SERVICE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r353663904-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353663904</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Wonderful experience in North Houston</t>
+  </si>
+  <si>
+    <t>Once again my wife and I have stayed at the Staybridge Suites in North Houston at Willowbrook.  Again we were wonderfully delighted with the accommodations and the Staff.  Our suite was perfect, even though we were using points for two rewards nights.  The staff were most helpful and totally polite.  The cleanliness of our suite met with my wife's approval and that isn't easy.  All in all we couldn't have been more pleased with our room or the experience.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r347551189-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347551189</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noisy! </t>
+  </si>
+  <si>
+    <t>Although we appreciated the layout of this room, I wouldn't stay here again if I wanted to actually sleep.  This hotel is not soundproof! I could hear highway traffic all night and to make it worse, the disrespectful motorcycle guests came in at 2 am with engines revving and music blaring. NOT A RESTFUL NIGHT...  The hotel is cheaply out together and the breakfast was lacking. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded March 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2016</t>
+  </si>
+  <si>
+    <t>Although we appreciated the layout of this room, I wouldn't stay here again if I wanted to actually sleep.  This hotel is not soundproof! I could hear highway traffic all night and to make it worse, the disrespectful motorcycle guests came in at 2 am with engines revving and music blaring. NOT A RESTFUL NIGHT...  The hotel is cheaply out together and the breakfast was lacking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r285074877-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285074877</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel, staff and clean</t>
+  </si>
+  <si>
+    <t>I stayed or almost a week at this hotel mainly because it was in the same complex as my office.  It was a very nice surprise.  The hotel itself seems well maintained and managed.  The were at least 5-6 cleaning almost every morning as I was leaving for work.  The food was consistently good; and a great selection.  I didn't partake in the evening food, but it seemed that many people did, which is a wonderful feature for a weary traveler.  I was happy with every aspect of this property and will happily stay again.  The manager on each morning was so bright and happy each day, it was so nice to have such a great welcome/send off each morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I stayed or almost a week at this hotel mainly because it was in the same complex as my office.  It was a very nice surprise.  The hotel itself seems well maintained and managed.  The were at least 5-6 cleaning almost every morning as I was leaving for work.  The food was consistently good; and a great selection.  I didn't partake in the evening food, but it seemed that many people did, which is a wonderful feature for a weary traveler.  I was happy with every aspect of this property and will happily stay again.  The manager on each morning was so bright and happy each day, it was so nice to have such a great welcome/send off each morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r283592021-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283592021</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms were wonderful! Our room wasn't ready until 4....no big deal...Willowbrook Mall was 3 miles away! The workers were nice and friendly!!!! Our AC went out and the man on duty went above and beyond to change us into another room!! Love it!! Breakfast was great!!! Must come back! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r282083965-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282083965</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Wonderful service and super clean facility</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel this past weekend with family while my husband was in town on business.  We had our toddler daughter with us and the staff bent over backwards to be sure we had everything we needed.  Everyone was so kind and helpful and that makes traveling with a toddler so much easier.  The staff was very tolerant of her exploring every inch of the hotel.  We used the pool and walked around the ponds in the back a lot.  The breakfast and dinners were great.  The room was spotless.  Thank you again for a wonderful stay.  We will be back next month!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r267454791-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267454791</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Unhelpful, rude, misleading, lazy but violent staff</t>
+  </si>
+  <si>
+    <t>The check in staff wanted to put us in a smoking room, even though we had reserved a king non-smoking suite.  They also gave me an inaccurate outdated internet code.  This meant that I was not able to make an important business transaction on time. When I attempted to contact the hotel management that evening at a telephone number they supplied for the purpose a recording informed me the number was "not in service".  When I asked for an apology for all this the following morning the hotel manager (a tall woman of substantial build) came at me with her arms flying and demanded that I leave ---- which, of course, my wife and I were glad to do (thus saving and denying them the next night's rent!).Also: the hotel is hard to find and distant from any amenities such as restaurants.AVOID if at all possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded April 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2015</t>
+  </si>
+  <si>
+    <t>The check in staff wanted to put us in a smoking room, even though we had reserved a king non-smoking suite.  They also gave me an inaccurate outdated internet code.  This meant that I was not able to make an important business transaction on time. When I attempted to contact the hotel management that evening at a telephone number they supplied for the purpose a recording informed me the number was "not in service".  When I asked for an apology for all this the following morning the hotel manager (a tall woman of substantial build) came at me with her arms flying and demanded that I leave ---- which, of course, my wife and I were glad to do (thus saving and denying them the next night's rent!).Also: the hotel is hard to find and distant from any amenities such as restaurants.AVOID if at all possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r266773363-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266773363</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Highly recommend.</t>
+  </si>
+  <si>
+    <t>We stayed there for a "night away from the kids".  Very enjoyable.  The staff was extremely helpful and friendly.  The property was in a nice area and was very well kept.  The room was spacious, clean, and comfortable.  I would highly recommend for business or just to get away.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r261964367-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261964367</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice staff bad location </t>
+  </si>
+  <si>
+    <t>Poor location especially If you're staying for a while and you dont have a car. Staff is welcoming and nice. Clean rooms and good services. There ain't too many restaurants that you can walk too, you can find Subway, a Japanese restaurant and streak house and a nice bar. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Poor location especially If you're staying for a while and you dont have a car. Staff is welcoming and nice. Clean rooms and good services. There ain't too many restaurants that you can walk too, you can find Subway, a Japanese restaurant and streak house and a nice bar. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r247704775-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247704775</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Staybridge Suites Houston Willowbrook; A Great Staff A Great Stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Staybridge Suites Houston Willowbrook, and service was outstanding. In fact Staybridge Willowbrook was better than Crown Plaza River Oaks Houston.We reserved a room a week in advance. When we arrived that afternoon, everything was perfect. We requested a room with little hassle and they put our room was on the first floor and it had a kitchenette. A kitchenette. Hotel parking was convenient too. Included in the stay was a super cool breakfast buffet. My wife was very happy with our stay at the Staybridge Suites Willowbrook Houston. We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded January 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the Staybridge Suites Houston Willowbrook, and service was outstanding. In fact Staybridge Willowbrook was better than Crown Plaza River Oaks Houston.We reserved a room a week in advance. When we arrived that afternoon, everything was perfect. We requested a room with little hassle and they put our room was on the first floor and it had a kitchenette. A kitchenette. Hotel parking was convenient too. Included in the stay was a super cool breakfast buffet. My wife was very happy with our stay at the Staybridge Suites Willowbrook Houston. We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r246096175-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246096175</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Was there for a week on business and really enjoyed the warm staff (arielle is amazing). The room was modern and clean. Breakfast buffet is impressive and included in the stay. The grounds are nice, pool, gym. Can not find anything negative there.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded January 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2015</t>
+  </si>
+  <si>
+    <t>Was there for a week on business and really enjoyed the warm staff (arielle is amazing). The room was modern and clean. Breakfast buffet is impressive and included in the stay. The grounds are nice, pool, gym. Can not find anything negative there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r234017052-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234017052</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Great Stay at a Great Price On Gessner</t>
+  </si>
+  <si>
+    <t>I gave it five stars not because its the Ritz but because it was a great value, very clean, breakfast was fine, an assortment of fresh fruit, oatmeal, cerals, eggs, susage yogurt something for eveyone. The staff was cordial and wanting  to please. The breakfast area overlooks a golf course and has an out door patio that is large. They even have a grilling area with a gas grill if you want to do your own steaks.    We had a one bedroom suite. with a  has full kitchen including a stove.  The entire was busy on Monday morning cleaning  the front doors and the lobby. The receptionist was very nice.  There were no security concerns. This Staybridge was located in a small office park. Easy  access to freeways.  This was my first time to stay at a Staybridge and I will now look to see if one is in the area whenever I am making a hotel reseravation.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I gave it five stars not because its the Ritz but because it was a great value, very clean, breakfast was fine, an assortment of fresh fruit, oatmeal, cerals, eggs, susage yogurt something for eveyone. The staff was cordial and wanting  to please. The breakfast area overlooks a golf course and has an out door patio that is large. They even have a grilling area with a gas grill if you want to do your own steaks.    We had a one bedroom suite. with a  has full kitchen including a stove.  The entire was busy on Monday morning cleaning  the front doors and the lobby. The receptionist was very nice.  There were no security concerns. This Staybridge was located in a small office park. Easy  access to freeways.  This was my first time to stay at a Staybridge and I will now look to see if one is in the area whenever I am making a hotel reseravation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r214587372-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214587372</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>Stayed here to attend a class reunion and visit family.    Room was nicely decorated.  Staff was great. AC worked fine, room was quiet.  Breakfast was very nice.  We would definately stay here again.  This property is right across from the race track and close to Willowbrook Mall.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Stayed here to attend a class reunion and visit family.    Room was nicely decorated.  Staff was great. AC worked fine, room was quiet.  Breakfast was very nice.  We would definately stay here again.  This property is right across from the race track and close to Willowbrook Mall.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r203979821-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203979821</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>Not again</t>
+  </si>
+  <si>
+    <t>It was not a pleasant experience. We checked in, took our bags to the room, unpacked and left for the day. We got back to the room that evening to find there was no air conditioning in the room. We had to pack back up and switch room. That was irritating enough but upon entering the second room we find an unflushed toilet!  The room was stuffy and drab. Several electric outlets did not work and neither did the hair dryer. This is the first hotel I have ever stayed at where I wasn't asked "how was your stay". I suspect they knew what the answer would be. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded May 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2014</t>
+  </si>
+  <si>
+    <t>It was not a pleasant experience. We checked in, took our bags to the room, unpacked and left for the day. We got back to the room that evening to find there was no air conditioning in the room. We had to pack back up and switch room. That was irritating enough but upon entering the second room we find an unflushed toilet!  The room was stuffy and drab. Several electric outlets did not work and neither did the hair dryer. This is the first hotel I have ever stayed at where I wasn't asked "how was your stay". I suspect they knew what the answer would be. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r195835255-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195835255</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Great value, amazing customer service!!!!</t>
+  </si>
+  <si>
+    <t>We were impressed with the hotel. The breakfast was amazing- so many options. The front desk was friendly. Definitely staying here again!!! We expected a mediocre hotel for the price. It was a nice surprise.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>We were impressed with the hotel. The breakfast was amazing- so many options. The front desk was friendly. Definitely staying here again!!! We expected a mediocre hotel for the price. It was a nice surprise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r190389997-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190389997</t>
+  </si>
+  <si>
+    <t>01/10/2014</t>
+  </si>
+  <si>
+    <t>Awesome place to be</t>
+  </si>
+  <si>
+    <t>I spent 2 weeks of this December there. Its an awesome place to be with all basic and necessary amenities. Front desk is very friendly and prompt in response. They also give free breakfast and snacks (on selected days). They provide free wifi and have gym, swimming pool and laundry to do your own.Its strategically located near to a golf course and lake. I find this to be best place to have studio apartments.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded January 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2014</t>
+  </si>
+  <si>
+    <t>I spent 2 weeks of this December there. Its an awesome place to be with all basic and necessary amenities. Front desk is very friendly and prompt in response. They also give free breakfast and snacks (on selected days). They provide free wifi and have gym, swimming pool and laundry to do your own.Its strategically located near to a golf course and lake. I find this to be best place to have studio apartments.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r186388093-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186388093</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We visited the area to have Thanksgiving with family.  One of the family booked rooms for us here, and I have to say I was impressed.  It is very nice, good for overnight stay as well as extended stays.  Service was excellent and they do provide a true hot breakfast complimentary.  The entire staff was friendly, did not pass a one that didn't say Hi, How is your stay, everything ok? With the rooms including the amenities for a longer stay (stove, fridge, microwave, etc.), you can't beat the price and be comfortable.  Highly recommend and be sure to check out the online booking prices!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>We visited the area to have Thanksgiving with family.  One of the family booked rooms for us here, and I have to say I was impressed.  It is very nice, good for overnight stay as well as extended stays.  Service was excellent and they do provide a true hot breakfast complimentary.  The entire staff was friendly, did not pass a one that didn't say Hi, How is your stay, everything ok? With the rooms including the amenities for a longer stay (stove, fridge, microwave, etc.), you can't beat the price and be comfortable.  Highly recommend and be sure to check out the online booking prices!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r180513024-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180513024</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Rooms are pretty nice.  Service is great!</t>
+  </si>
+  <si>
+    <t>I have been staying here for a week for work.  The rooms are clean, fairly roomy, and the beds are very comfortable.  I had to take one star away because they could use some updating, but it isn't that bad.  They offer free wifi, have a little gym and swimming pool, are located on a golf course, on-site storage, laundry, and offer a free breakfast and social happy hour.  The best thing I can say about them is the service.  I would have probably shopped around next time in the area, but the front desk girl, Nina, was so accommodating that I will return just for her service.  She helped me move into a better room hassle free and is a joy to see every afternoon.  I would love to write more, but I am here for work, and that is what I must attend to.  I just wanted to take a couple moments to make sure this hotel received its credit due.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I have been staying here for a week for work.  The rooms are clean, fairly roomy, and the beds are very comfortable.  I had to take one star away because they could use some updating, but it isn't that bad.  They offer free wifi, have a little gym and swimming pool, are located on a golf course, on-site storage, laundry, and offer a free breakfast and social happy hour.  The best thing I can say about them is the service.  I would have probably shopped around next time in the area, but the front desk girl, Nina, was so accommodating that I will return just for her service.  She helped me move into a better room hassle free and is a joy to see every afternoon.  I would love to write more, but I am here for work, and that is what I must attend to.  I just wanted to take a couple moments to make sure this hotel received its credit due.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r170347341-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170347341</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Very nice place to stay. We liked everything about this place - location is peaceful and very safe, price is reasonable, staff is friendly and courteous, rooms are super comfortable and super clean, dining room downstairs is very cozy. Towels are awesomely absorbent, beds are great for a restful sleep. 
+We stayed at Marriott not so long ago, rooms looked very similar but Staybridge's cleanliness standards are much higher as well as their staff's friendliness. At Staybridge it feels like they really do their best to keep the place clean whereas at Marriott we did notice slack in terms of cleanliness ... 
+Areas to improve:
+Definitely a suggestion to revise the dining table design in the room as it is absolutely impossible to use for eating and it looks really bad. Plus, the kitchen looks and feels too small because of it. If that ugly table weren't there, there would be more space in the kitchen area. The idea was to make a dining table that looks like a bar counter, but it turned out to be not so great in practice. So, unfortunately, the dining area in the room is not pretty and not so usable... The narrow coffee table by the wall is not a good idea either, not pretty and not functional, looks like a piece of a whole table actually. 
+We would love to see just a table in the middle of the dining area in...Very nice place to stay. We liked everything about this place - location is peaceful and very safe, price is reasonable, staff is friendly and courteous, rooms are super comfortable and super clean, dining room downstairs is very cozy. Towels are awesomely absorbent, beds are great for a restful sleep. We stayed at Marriott not so long ago, rooms looked very similar but Staybridge's cleanliness standards are much higher as well as their staff's friendliness. At Staybridge it feels like they really do their best to keep the place clean whereas at Marriott we did notice slack in terms of cleanliness ... Areas to improve:Definitely a suggestion to revise the dining table design in the room as it is absolutely impossible to use for eating and it looks really bad. Plus, the kitchen looks and feels too small because of it. If that ugly table weren't there, there would be more space in the kitchen area. The idea was to make a dining table that looks like a bar counter, but it turned out to be not so great in practice. So, unfortunately, the dining area in the room is not pretty and not so usable... The narrow coffee table by the wall is not a good idea either, not pretty and not functional, looks like a piece of a whole table actually. We would love to see just a table in the middle of the dining area in the room with let's say a vase of flowers.  That may go well with the style of wall paintings and dining room downstairs decorations. Just a suggestion...  Another suggestion - some real juice or organic free range eggs for breakfast.  Jam without additives. Current junk juice is not so good, has high fructose corn syrup in it. It actually caused blood sugar rollercoaster later during the day. Not so pleasant. If real food is expensive for current budget, perhaps a separate buffet with healthier foods for additional charge can do the trick? It may attract more customers to you, actually. Other than that, the place is great.We would definitely stay there again. Thank you for providing a great service to travelers!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Very nice place to stay. We liked everything about this place - location is peaceful and very safe, price is reasonable, staff is friendly and courteous, rooms are super comfortable and super clean, dining room downstairs is very cozy. Towels are awesomely absorbent, beds are great for a restful sleep. 
+We stayed at Marriott not so long ago, rooms looked very similar but Staybridge's cleanliness standards are much higher as well as their staff's friendliness. At Staybridge it feels like they really do their best to keep the place clean whereas at Marriott we did notice slack in terms of cleanliness ... 
+Areas to improve:
+Definitely a suggestion to revise the dining table design in the room as it is absolutely impossible to use for eating and it looks really bad. Plus, the kitchen looks and feels too small because of it. If that ugly table weren't there, there would be more space in the kitchen area. The idea was to make a dining table that looks like a bar counter, but it turned out to be not so great in practice. So, unfortunately, the dining area in the room is not pretty and not so usable... The narrow coffee table by the wall is not a good idea either, not pretty and not functional, looks like a piece of a whole table actually. 
+We would love to see just a table in the middle of the dining area in...Very nice place to stay. We liked everything about this place - location is peaceful and very safe, price is reasonable, staff is friendly and courteous, rooms are super comfortable and super clean, dining room downstairs is very cozy. Towels are awesomely absorbent, beds are great for a restful sleep. We stayed at Marriott not so long ago, rooms looked very similar but Staybridge's cleanliness standards are much higher as well as their staff's friendliness. At Staybridge it feels like they really do their best to keep the place clean whereas at Marriott we did notice slack in terms of cleanliness ... Areas to improve:Definitely a suggestion to revise the dining table design in the room as it is absolutely impossible to use for eating and it looks really bad. Plus, the kitchen looks and feels too small because of it. If that ugly table weren't there, there would be more space in the kitchen area. The idea was to make a dining table that looks like a bar counter, but it turned out to be not so great in practice. So, unfortunately, the dining area in the room is not pretty and not so usable... The narrow coffee table by the wall is not a good idea either, not pretty and not functional, looks like a piece of a whole table actually. We would love to see just a table in the middle of the dining area in the room with let's say a vase of flowers.  That may go well with the style of wall paintings and dining room downstairs decorations. Just a suggestion...  Another suggestion - some real juice or organic free range eggs for breakfast.  Jam without additives. Current junk juice is not so good, has high fructose corn syrup in it. It actually caused blood sugar rollercoaster later during the day. Not so pleasant. If real food is expensive for current budget, perhaps a separate buffet with healthier foods for additional charge can do the trick? It may attract more customers to you, actually. Other than that, the place is great.We would definitely stay there again. Thank you for providing a great service to travelers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r161213866-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161213866</t>
+  </si>
+  <si>
+    <t>05/19/2013</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>Not a bad place to stay. Service was excellent, breakfast was good. Location of hotl  is hard to findW/O a GPS . Biggest problem was that the rugs had an odor. A smell like the powder used to clean rugs in a house. My wife and two friends staying with us noticed it also.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded May 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2013</t>
+  </si>
+  <si>
+    <t>Not a bad place to stay. Service was excellent, breakfast was good. Location of hotl  is hard to findW/O a GPS . Biggest problem was that the rugs had an odor. A smell like the powder used to clean rugs in a house. My wife and two friends staying with us noticed it also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r158523116-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158523116</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel, large rooms, swimming pool and golf club</t>
+  </si>
+  <si>
+    <t>This is the fourth time I'm staying here. I always had good experience. The hotel is clean, the rooms are large with comfortable single double bed, swimming pool, golf club and restaurant.Internet is free and fast. The hotel is 40 minutes from the airport and 50 minutes from down town, depending on traffic. The staff is very friendly and you will have a decent breakfast in the morning. Coffee is good. Any time I came here we had free beers for happy hours between 18 and 19:30. That's is not gonna happen every day but at least 4/7. The hotel store is smal, but you can still find the necessary stuff to survive. There is a store about 2 minutes walking at the petrol station. If you play golf you got a nice club here. The restaurant is just nearby the golf club. The food is not so special, but at least it works in case you are tired and you prefer to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded April 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2013</t>
+  </si>
+  <si>
+    <t>This is the fourth time I'm staying here. I always had good experience. The hotel is clean, the rooms are large with comfortable single double bed, swimming pool, golf club and restaurant.Internet is free and fast. The hotel is 40 minutes from the airport and 50 minutes from down town, depending on traffic. The staff is very friendly and you will have a decent breakfast in the morning. Coffee is good. Any time I came here we had free beers for happy hours between 18 and 19:30. That's is not gonna happen every day but at least 4/7. The hotel store is smal, but you can still find the necessary stuff to survive. There is a store about 2 minutes walking at the petrol station. If you play golf you got a nice club here. The restaurant is just nearby the golf club. The food is not so special, but at least it works in case you are tired and you prefer to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r153149891-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153149891</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>This is one of my go to places in Houston</t>
+  </si>
+  <si>
+    <t>This hotel is very well situated (right off the beltway on the west side of Houston) and is always clean and professional.  On some of the weekdays (I think Wed and Thurs) they have food and drinks served in the evening.....great get away for the business traveler.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r152168066-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152168066</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelent hotel with a golf club and beautiful place to stay. The rooms are very clean , with a good space. They have wonderful staffs so gently and prestative. Very nice complimentary breakfast. Free parking. Good location near willowbrook mall and some restaurants. I would come back ! </t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r147277506-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147277506</t>
+  </si>
+  <si>
+    <t>12/11/2012</t>
+  </si>
+  <si>
+    <t>I love this place!</t>
+  </si>
+  <si>
+    <t>I checked in not knowing much about this hotel.  The front desk person was very friendly and very quick at getting me my room keys.  Just for fun, because it's never worked for me before, I asked if being a Priority Club Member would get me and upgrade...and boy did it!  I was put in a very nice King Suite.  I'm staying for most of the week, so it was so nice having this much room.  The room darkening shades actually do make the room dark and don't gap like other hotel's.  I love the usable kitchen, even though I won't be cooking, I didn't have to work to get my case of water in the much bigger fridge.  It's been fairly quiet and the bed is comfortable.  The breakfast offers a nice selection of choices.  I would definitely recommend this place to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I checked in not knowing much about this hotel.  The front desk person was very friendly and very quick at getting me my room keys.  Just for fun, because it's never worked for me before, I asked if being a Priority Club Member would get me and upgrade...and boy did it!  I was put in a very nice King Suite.  I'm staying for most of the week, so it was so nice having this much room.  The room darkening shades actually do make the room dark and don't gap like other hotel's.  I love the usable kitchen, even though I won't be cooking, I didn't have to work to get my case of water in the much bigger fridge.  It's been fairly quiet and the bed is comfortable.  The breakfast offers a nice selection of choices.  I would definitely recommend this place to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r140029399-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140029399</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>All that you need!</t>
+  </si>
+  <si>
+    <t>i always stay there when I go to Houston. Not very near from downtown, but for me being nearby willowbrook is all that I want. Nice receptionists, good breakfast. They also have on a daily basis this mexican food @6pm which is nice. there are walmart, target, best buy, shopping mall, fast food only 2,5 miles away. During the summer the swimming pool is a good choice.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r136688475-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136688475</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>Excellent and clean</t>
+  </si>
+  <si>
+    <t>Suite came with a fully stocked kitchen with all necessary items to cook such as fridge, plates, silverware, toaster, sink, dishwasher, dish soap, dish towels and utensils. Roomy and clean rooms! Modern hotel. Decent breakfast included. Highly recommend!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r133253628-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133253628</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>Kind, considerate staff.  Home from home!</t>
+  </si>
+  <si>
+    <t>After trying a variety of hotels in the area I decided 3 years ago that this is the pick of the bunch. Since that time I have been a guest every 2 to 3 months with average stays of 14 consecutive nights. The hotel is spotlessly clean and the rooms are exceptionally comfortable with a wide choice of suite styles. Best of all is the staff, all of whom are true professionals.The hot beakfast buffet makes a great start to the day and the 3 times a week Sundowner Reception makes a welcome change on evenings when one is too tired to go out to eat.  I guess the drawback is they don't have a restaurant but there is an extremely wide choice of places to eat, to suit every conceivable taste, a short drive away.  For those who don't drive there is a golf club next door that serves acceptable food Monday through Saturday.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>After trying a variety of hotels in the area I decided 3 years ago that this is the pick of the bunch. Since that time I have been a guest every 2 to 3 months with average stays of 14 consecutive nights. The hotel is spotlessly clean and the rooms are exceptionally comfortable with a wide choice of suite styles. Best of all is the staff, all of whom are true professionals.The hot beakfast buffet makes a great start to the day and the 3 times a week Sundowner Reception makes a welcome change on evenings when one is too tired to go out to eat.  I guess the drawback is they don't have a restaurant but there is an extremely wide choice of places to eat, to suit every conceivable taste, a short drive away.  For those who don't drive there is a golf club next door that serves acceptable food Monday through Saturday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r117867858-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117867858</t>
+  </si>
+  <si>
+    <t>09/09/2011</t>
+  </si>
+  <si>
+    <t>Absolutely Loved It..!!!!</t>
+  </si>
+  <si>
+    <t>Stayed here two nights in late August 2011. Exceptionally clean room and a very pleasant staff. Breakfast was awesome and I can't say that I have ever stayed in a nicer place for the money spent. If I am in the area again this will be the first place I will look for.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r88402769-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>88402769</t>
+  </si>
+  <si>
+    <t>11/28/2010</t>
+  </si>
+  <si>
+    <t>Great extended stay</t>
+  </si>
+  <si>
+    <t>Breakfast is always the same, but it includes enough different things that it only got old to me on the second week.  I like that they had eggs boiled and also scrambled or as omelets.  Staff was always courteous, but they seemed short-staffed all the time and couldn't bring anything to your room.  Everything was clean and stocked, though.  The equipment in the gym could use updating, but it was all in working condition.  Some nights parking was a bit inconvenient, but the Tues, Wed, Thurs happy hours made up for that.  Not a bad stay.  Will be content if company uses this hotel again.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r85631281-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>85631281</t>
+  </si>
+  <si>
+    <t>11/01/2010</t>
+  </si>
+  <si>
+    <t>Good stay at a great price</t>
+  </si>
+  <si>
+    <t>We enjoyed this Hotel and the price. Hot and Cold breakfast (included) was very good. Clean rooms with stove, microwave, fridge. Golf course right behind the hotel with discount for hotel guests. Happy hour was great the night we arrived, a cold beverage after a long trip hit the spot.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1450,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1482,2747 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>174</v>
+      </c>
+      <c r="X20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>188</v>
+      </c>
+      <c r="X22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>197</v>
+      </c>
+      <c r="X23" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>206</v>
+      </c>
+      <c r="X24" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>214</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>206</v>
+      </c>
+      <c r="X25" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" t="s">
+        <v>222</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>206</v>
+      </c>
+      <c r="X26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>229</v>
+      </c>
+      <c r="X27" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>237</v>
+      </c>
+      <c r="X28" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>245</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>246</v>
+      </c>
+      <c r="X29" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>237</v>
+      </c>
+      <c r="X30" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L31" t="s">
+        <v>260</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>237</v>
+      </c>
+      <c r="X31" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" t="s">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s">
+        <v>267</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>268</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>269</v>
+      </c>
+      <c r="X32" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>268</v>
+      </c>
+      <c r="O33" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>277</v>
+      </c>
+      <c r="X33" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>286</v>
+      </c>
+      <c r="X34" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>300</v>
+      </c>
+      <c r="O36" t="s">
+        <v>97</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J37" t="s">
+        <v>303</v>
+      </c>
+      <c r="K37" t="s">
+        <v>304</v>
+      </c>
+      <c r="L37" t="s">
+        <v>305</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>306</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" t="s">
+        <v>310</v>
+      </c>
+      <c r="K38" t="s">
+        <v>311</v>
+      </c>
+      <c r="L38" t="s">
+        <v>312</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>313</v>
+      </c>
+      <c r="O38" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>314</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>315</v>
+      </c>
+      <c r="J39" t="s">
+        <v>316</v>
+      </c>
+      <c r="K39" t="s">
+        <v>317</v>
+      </c>
+      <c r="L39" t="s">
+        <v>318</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L40" t="s">
+        <v>323</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>327</v>
+      </c>
+      <c r="J41" t="s">
+        <v>328</v>
+      </c>
+      <c r="K41" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" t="s">
+        <v>330</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>331</v>
+      </c>
+      <c r="O41" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>332</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>333</v>
+      </c>
+      <c r="J42" t="s">
+        <v>334</v>
+      </c>
+      <c r="K42" t="s">
+        <v>335</v>
+      </c>
+      <c r="L42" t="s">
+        <v>336</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>337</v>
+      </c>
+      <c r="O42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>338</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>339</v>
+      </c>
+      <c r="J43" t="s">
+        <v>340</v>
+      </c>
+      <c r="K43" t="s">
+        <v>341</v>
+      </c>
+      <c r="L43" t="s">
+        <v>342</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_608.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_608.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="527">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,70 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r558438536-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>609502</t>
+  </si>
+  <si>
+    <t>558438536</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle of nowhere but nice staff </t>
+  </si>
+  <si>
+    <t>Good comfortable beds, adequate breakfast with disposable plastic plates/cutlery. Helpful friendly staff although I had emailed them 3 times before we visited with no replies. Nice room but noisy airconMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded February 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2018</t>
+  </si>
+  <si>
+    <t>Good comfortable beds, adequate breakfast with disposable plastic plates/cutlery. Helpful friendly staff although I had emailed them 3 times before we visited with no replies. Nice room but noisy airconMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r547871010-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547871010</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>I booked this hotel on the advice of a colleague because it was close to the office I was visiting.  Easy access from airport it turned out to be a very nice hotel.  A bit short on amenities like a full restaurant but there are no shortage of good eateries in Houston so this was not a problem.  The room was indeed a suite complete with a generous living space &amp; full kitchen (fridge, microwave, sink etc.). Room was clean &amp; tidy.  Only minor fault was the hot water takes some time to come through.  Excellent power in the shower.  Towels etc. changed daily. Pleasant location overlooking a pond with friendly ducks!  A bit away from the freeway so hardly any noise. Staff were very helpful &amp; pleasant.   Free food &amp; drinks Monday to Friday was a bonus.  Great breakfast choices hot &amp; cold.  All in all a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I booked this hotel on the advice of a colleague because it was close to the office I was visiting.  Easy access from airport it turned out to be a very nice hotel.  A bit short on amenities like a full restaurant but there are no shortage of good eateries in Houston so this was not a problem.  The room was indeed a suite complete with a generous living space &amp; full kitchen (fridge, microwave, sink etc.). Room was clean &amp; tidy.  Only minor fault was the hot water takes some time to come through.  Excellent power in the shower.  Towels etc. changed daily. Pleasant location overlooking a pond with friendly ducks!  A bit away from the freeway so hardly any noise. Staff were very helpful &amp; pleasant.   Free food &amp; drinks Monday to Friday was a bonus.  Great breakfast choices hot &amp; cold.  All in all a great stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r528181690-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>609502</t>
   </si>
   <si>
     <t>528181690</t>
@@ -193,9 +247,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded August 5, 2017</t>
   </si>
   <si>
@@ -224,7 +275,48 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r473699252-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473699252</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>I was eager to try the Stay Bridge brand</t>
+  </si>
+  <si>
+    <t>The hotel is very comfortable and nicely kept.  Breakfast is served daily and an evening meal is served on Mon-Wed.  The meal service was a nice amenity, but the quality of the food was just ok at best.  I was staying at the hotel for business purposes and was there for 5 nights.   I was booked into a 1 bedroom suite that was very comfortable and the bed was incredibly comfortable.  
+I was eager to stay at a Stay Bridge hotel and will stay at other Stay Bridge locations but I am not sure if I would return to this particular property again.  My suite had a full kitchen with a refrigerator, microwave and cooktop.  The kitchen was equipped with anything that you would need to prepare meals. 
+The refrigerator made a LOUD humming sound everyday, that I was there.  The humming would cease periodically but not for long.  
+I called the front desk to complain 2 x times and twice a maintenance employee came to take a look at the fridge and both times said they would return to do take care of the situation.  Neither of them returned.  One of the employees looked puzzled as to why I was complaining about the fridge and asked me "well... is it working?" As if to say it's keeping your food chilled so what's the problem?  The humming was very annoying and distracting.
+I have worked in the hospitality industry in...The hotel is very comfortable and nicely kept.  Breakfast is served daily and an evening meal is served on Mon-Wed.  The meal service was a nice amenity, but the quality of the food was just ok at best.  I was staying at the hotel for business purposes and was there for 5 nights.   I was booked into a 1 bedroom suite that was very comfortable and the bed was incredibly comfortable.  I was eager to stay at a Stay Bridge hotel and will stay at other Stay Bridge locations but I am not sure if I would return to this particular property again.  My suite had a full kitchen with a refrigerator, microwave and cooktop.  The kitchen was equipped with anything that you would need to prepare meals. The refrigerator made a LOUD humming sound everyday, that I was there.  The humming would cease periodically but not for long.  I called the front desk to complain 2 x times and twice a maintenance employee came to take a look at the fridge and both times said they would return to do take care of the situation.  Neither of them returned.  One of the employees looked puzzled as to why I was complaining about the fridge and asked me "well... is it working?" As if to say it's keeping your food chilled so what's the problem?  The humming was very annoying and distracting.I have worked in the hospitality industry in the past for several major hotel brands and we always strived to take care of the guest.  This hotel is decent but the customer service could stand some improvement.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very comfortable and nicely kept.  Breakfast is served daily and an evening meal is served on Mon-Wed.  The meal service was a nice amenity, but the quality of the food was just ok at best.  I was staying at the hotel for business purposes and was there for 5 nights.   I was booked into a 1 bedroom suite that was very comfortable and the bed was incredibly comfortable.  
+I was eager to stay at a Stay Bridge hotel and will stay at other Stay Bridge locations but I am not sure if I would return to this particular property again.  My suite had a full kitchen with a refrigerator, microwave and cooktop.  The kitchen was equipped with anything that you would need to prepare meals. 
+The refrigerator made a LOUD humming sound everyday, that I was there.  The humming would cease periodically but not for long.  
+I called the front desk to complain 2 x times and twice a maintenance employee came to take a look at the fridge and both times said they would return to do take care of the situation.  Neither of them returned.  One of the employees looked puzzled as to why I was complaining about the fridge and asked me "well... is it working?" As if to say it's keeping your food chilled so what's the problem?  The humming was very annoying and distracting.
+I have worked in the hospitality industry in...The hotel is very comfortable and nicely kept.  Breakfast is served daily and an evening meal is served on Mon-Wed.  The meal service was a nice amenity, but the quality of the food was just ok at best.  I was staying at the hotel for business purposes and was there for 5 nights.   I was booked into a 1 bedroom suite that was very comfortable and the bed was incredibly comfortable.  I was eager to stay at a Stay Bridge hotel and will stay at other Stay Bridge locations but I am not sure if I would return to this particular property again.  My suite had a full kitchen with a refrigerator, microwave and cooktop.  The kitchen was equipped with anything that you would need to prepare meals. The refrigerator made a LOUD humming sound everyday, that I was there.  The humming would cease periodically but not for long.  I called the front desk to complain 2 x times and twice a maintenance employee came to take a look at the fridge and both times said they would return to do take care of the situation.  Neither of them returned.  One of the employees looked puzzled as to why I was complaining about the fridge and asked me "well... is it working?" As if to say it's keeping your food chilled so what's the problem?  The humming was very annoying and distracting.I have worked in the hospitality industry in the past for several major hotel brands and we always strived to take care of the guest.  This hotel is decent but the customer service could stand some improvement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r472400786-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472400786</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Great place away from home!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever I come to Euston, I always stay here. They have nightly free dinner and drink during the week that helps to make it feel a little more like home. The rooms are good and the customer service is great! It is located next to a golf course so it has always been quiet every night I stayed. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r468748340-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
@@ -298,6 +390,45 @@
  The main reason for me taking the time to review is that on the 3rd morning as we were about to leave I discovered several small bites on my arms; within a few hours several more appeared on my legs as well.  A medical professional in my home town confirmed that they were BEDBUG BITES so I called the hotel to report. I got a lot of response about all the training and checking the staff did daily so this should not be. The woman did tell me she would go check the room and call me back; she did but said there were already guests checked in and they said they were fine so she didn't even check!!!! Said their pest control company would be notified and she'd get back to me......I never hear from them (probably because the found I was correct!!). And apparently didn't care that refrigerator/freezer...we stayed in this hotel 3 nights in mid Oct. Service/food fine; our room refrigerators ice maker wasnt working and food not cold in fridge; reported twice but they never came to check so could only get ice during breakfast hours from the soda machine before it was locked up until the next morning. There was 1/2 of solid ice in bottom of freezer leading us to believe a line was clogged but although hotel practically empty never offered us another room. Maybe because we had a Priceline discounted room!! The main reason for me taking the time to review is that on the 3rd morning as we were about to leave I discovered several small bites on my arms; within a few hours several more appeared on my legs as well.  A medical professional in my home town confirmed that they were BEDBUG BITES so I called the hotel to report. I got a lot of response about all the training and checking the staff did daily so this should not be. The woman did tell me she would go check the room and call me back; she did but said there were already guests checked in and they said they were fine so she didn't even check!!!! Said their pest control company would be notified and she'd get back to me......I never hear from them (probably because the found I was correct!!). And apparently didn't care that refrigerator/freezer was broken as they immediately checked in another guest.This was an extremely disappointing stay as my brother has stayed at the Staybridge a couple of miles away from this location on a regular basis and highly recommended these hotels.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r435827874-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435827874</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Overnight stop</t>
+  </si>
+  <si>
+    <t>On a road trip across Texas i stayed one night here. I arrived late and left early and  was looking for a clean comfortable room to rest my head which I found here. The only glitch was the initial inability to check in as the computer was down. I was surprised that this couldn't be done manually. I had to wait so I checked out the hotel next door but it didn't look as nice as the staybridge so I returned and the manager had arrived and checked me in manually. The suite was lovely. There were  free laundry machines so I took the opportunity to do some laundry. Breakfast was typical for these type of hotels, more quantity than quality. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>On a road trip across Texas i stayed one night here. I arrived late and left early and  was looking for a clean comfortable room to rest my head which I found here. The only glitch was the initial inability to check in as the computer was down. I was surprised that this couldn't be done manually. I had to wait so I checked out the hotel next door but it didn't look as nice as the staybridge so I returned and the manager had arrived and checked me in manually. The suite was lovely. There were  free laundry machines so I took the opportunity to do some laundry. Breakfast was typical for these type of hotels, more quantity than quality. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r429601862-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429601862</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Great Stay!!!</t>
+  </si>
+  <si>
+    <t>Very well kept property.From the time we arrived ,they treated us like family. The clerk named Gary was so very helpful with local places to eat and entertainment.The entire staff,from the housekeepers to the maintenance guys to the breakfast attendant was so nice. I will be returning soon...</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r426970502-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -352,6 +483,39 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r392716809-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392716809</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Kevin did a great job at the front desk.  Room was nice and the air worked well. Was in a safe neighborhood and the breakfast was great with a good selection.  There were eggs,sausage,waffles, muffins etc a</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r380844265-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380844265</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The stay is always great good food friendly people and the staff is extremely well. If y'all are traveling Staybridge Suites is a great place. You can apply for rewards card to get points for free nights. I don't have to say but if you stay there you be happy with it. And for business people ask about the if your company get discount so the long you stay the more points you get. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r378773104-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -406,6 +570,45 @@
     <t>I was in town for one night with my GF on some business nearby. The location is not the greatest if you're looking to explore Houston, but it was perfect for us. We did not book this hotel directly through IHG, but my platinum status was recognized anyways and I was still given a complimentary upgrade! We got to stay in one of the suites and I must say it is very spacious and homey with TV's in both the living room and the bedroom along with a full kitchen. Our bed was very comfortable and I got a great night's sleep as I had to wake up at 5AM the next morning. That brings me to the next point, the breakfast is very good. It does not have the biggest selection in the world, but they did have hot and cold items that were constantly refilled by the charming staff. Selections included scrambled eggs, ham, fresh fruit, bagels/english muffins, and more. I would definitely recommend a stay at this hotel if you have business/family nearby.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r360868686-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360868686</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelled reservation unbeknownst to me, angry guest! </t>
+  </si>
+  <si>
+    <t>I called the day prior and day of my arrival to confirm my reservation and to confirm i was able to have a late check in. I traveled 4 hours to get there and excited about the weekend. Get to the hotel and they had canceled my reservation!! Why?!  I never stated i wanted to cancel. I spoke with two different people from guest services to confirm my stay. Busiest weekend due to final 4 events, everywhere im the vicinity was sold out! Although, the night auditor was apologetic, there was no excuse for why my reservation was cancelled. Very unhappy guest!! MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded April 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2016</t>
+  </si>
+  <si>
+    <t>I called the day prior and day of my arrival to confirm my reservation and to confirm i was able to have a late check in. I traveled 4 hours to get there and excited about the weekend. Get to the hotel and they had canceled my reservation!! Why?!  I never stated i wanted to cancel. I spoke with two different people from guest services to confirm my stay. Busiest weekend due to final 4 events, everywhere im the vicinity was sold out! Although, the night auditor was apologetic, there was no excuse for why my reservation was cancelled. Very unhappy guest!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r359568245-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359568245</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Would Love To Stay Here Longer</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for two nights in March, 2016.  We had little interaction with the hotel staff, preferring to skip housekeeping services and reuse the room towels.  The complimentary shampoo, conditioner, and lotion was large enough in size for two days' usage.  The room was clean, with a kitchenette, complete with dishes and cooking supplies.  If I were to stay in Houston for an extended time, I would definitely stay here and save money by cooking in the room.  The free breakfast was very good, and the hotel offered a social gathering on  Monday, with free drinks.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r357302118-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -475,6 +678,48 @@
     <t>Although we appreciated the layout of this room, I wouldn't stay here again if I wanted to actually sleep.  This hotel is not soundproof! I could hear highway traffic all night and to make it worse, the disrespectful motorcycle guests came in at 2 am with engines revving and music blaring. NOT A RESTFUL NIGHT...  The hotel is cheaply out together and the breakfast was lacking. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r305039809-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>305039809</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>FANTASTIC STAFF</t>
+  </si>
+  <si>
+    <t>We booked our room through hotels.com who promised a two bed suite, upon arrival after traveling for 5 hours that is not what was booked for my family of four. The front desk manager was BEYOND helpful in resolving the matter with hotels.com, helped us get our room canceled through them and rebooked through the hotel at a cheaper rate. The rooms were nice and clean, breakfast both mornings was good. I cannot rave enough about the staff and how wonderful they were. Very polite, kind, and helpful! We will be back when we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2015</t>
+  </si>
+  <si>
+    <t>We booked our room through hotels.com who promised a two bed suite, upon arrival after traveling for 5 hours that is not what was booked for my family of four. The front desk manager was BEYOND helpful in resolving the matter with hotels.com, helped us get our room canceled through them and rebooked through the hotel at a cheaper rate. The rooms were nice and clean, breakfast both mornings was good. I cannot rave enough about the staff and how wonderful they were. Very polite, kind, and helpful! We will be back when we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r299669524-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299669524</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>This hotel is very nice. The staff is friendly and the rooms are clean. We had a suite with a livingroom, kitchenette, and bedroom. There was nothing special about the rooms, but they were clean and newer. Breakfast was good for a hotel. The dinners that are served Tuesday through Thursday are only mediocre. There are 2 grills with guest access where I was able to grill up some tasty food (once it got dark and the temperature was semi-tolerable. The pool is outside which is very unfortunate. An indoor pool would have been much appreciated to cool down after being out in the sun all day. The free computers in the lobby are fast and convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is very nice. The staff is friendly and the rooms are clean. We had a suite with a livingroom, kitchenette, and bedroom. There was nothing special about the rooms, but they were clean and newer. Breakfast was good for a hotel. The dinners that are served Tuesday through Thursday are only mediocre. There are 2 grills with guest access where I was able to grill up some tasty food (once it got dark and the temperature was semi-tolerable. The pool is outside which is very unfortunate. An indoor pool would have been much appreciated to cool down after being out in the sun all day. The free computers in the lobby are fast and convenient.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r285074877-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -526,6 +771,39 @@
     <t>We stayed at this hotel this past weekend with family while my husband was in town on business.  We had our toddler daughter with us and the staff bent over backwards to be sure we had everything we needed.  Everyone was so kind and helpful and that makes traveling with a toddler so much easier.  The staff was very tolerant of her exploring every inch of the hotel.  We used the pool and walked around the ponds in the back a lot.  The breakfast and dinners were great.  The room was spotless.  Thank you again for a wonderful stay.  We will be back next month!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r268565835-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268565835</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>Great Experience by K. Myers Sr.</t>
+  </si>
+  <si>
+    <t>Without a doubt one of my favorite hotels I have stayed in. I am having a marvelous stay in Staybridge Suites Houston-Willowbrook. Management is great and the staff is extremely helpful and friendly. The building has wonderful interiors and exteriors. Every meal I have had here is excellent and if we want something special they don't hesitate to get it. I have to give it five stars because the atmosphere is so special that it really feels like home to me.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r267571281-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267571281</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Good Business Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is extremely clean, the rooms are suites and have plenty of room, are very comfortable and practical. A simple breakfast is included. It is not greatly located for tourism but it is if you have meetings in the area. I stay here often and enjoy it. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r267454791-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -583,9 +861,6 @@
     <t>Poor location especially If you're staying for a while and you dont have a car. Staff is welcoming and nice. Clean rooms and good services. There ain't too many restaurants that you can walk too, you can find Subway, a Japanese restaurant and streak house and a nice bar. MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded March 30, 2015</t>
   </si>
   <si>
@@ -595,6 +870,60 @@
     <t>Poor location especially If you're staying for a while and you dont have a car. Staff is welcoming and nice. Clean rooms and good services. There ain't too many restaurants that you can walk too, you can find Subway, a Japanese restaurant and streak house and a nice bar. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r251660487-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251660487</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Quick Stay but would stay again in a heartbeat!</t>
+  </si>
+  <si>
+    <t>I was there just one night and got in about 10 in the morning, there wasn't any hassle about checking in that early and was even offered/allowed to go eat breakfast even though it had just ended. I was also offered breakfast when checking out even though it wasn't yet open.  Staff was great and I would pick to stay here again in a heartbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2015</t>
+  </si>
+  <si>
+    <t>I was there just one night and got in about 10 in the morning, there wasn't any hassle about checking in that early and was even offered/allowed to go eat breakfast even though it had just ended. I was also offered breakfast when checking out even though it wasn't yet open.  Staff was great and I would pick to stay here again in a heartbeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r251298796-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251298796</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Great location for a business trip</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a business trip. The company I went to is located right next door, so for this trip the location was perfect.The hotel is newer and in excellent condition.  The staff was friendly and efficient, the room was clean and included fridge and Stive for longer stays.The bathroom was good as well, the tub surround was actually granite placed on the walls.The full breakfast had a good variety and the coffee was excellent.I enjoyed staying here and would definitely recommend stopping here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded January 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a business trip. The company I went to is located right next door, so for this trip the location was perfect.The hotel is newer and in excellent condition.  The staff was friendly and efficient, the room was clean and included fridge and Stive for longer stays.The bathroom was good as well, the tub surround was actually granite placed on the walls.The full breakfast had a good variety and the coffee was excellent.I enjoyed staying here and would definitely recommend stopping here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r247704775-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -640,12 +969,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>Bruce B, Director of Sales at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded January 29, 2015</t>
-  </si>
-  <si>
-    <t>Responded January 29, 2015</t>
-  </si>
-  <si>
     <t>Was there for a week on business and really enjoyed the warm staff (arielle is amazing). The room was modern and clean. Breakfast buffet is impressive and included in the stay. The grounds are nice, pool, gym. Can not find anything negative there.More</t>
   </si>
   <si>
@@ -670,6 +993,42 @@
     <t>I gave it five stars not because its the Ritz but because it was a great value, very clean, breakfast was fine, an assortment of fresh fruit, oatmeal, cerals, eggs, susage yogurt something for eveyone. The staff was cordial and wanting  to please. The breakfast area overlooks a golf course and has an out door patio that is large. They even have a grilling area with a gas grill if you want to do your own steaks.    We had a one bedroom suite. with a  has full kitchen including a stove.  The entire was busy on Monday morning cleaning  the front doors and the lobby. The receptionist was very nice.  There were no security concerns. This Staybridge was located in a small office park. Easy  access to freeways.  This was my first time to stay at a Staybridge and I will now look to see if one is in the area whenever I am making a hotel reseravation.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r221632217-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221632217</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Love the Staybridge and this Hotel did not disappoint.Excellent staff, nice quiet rooms.  Dull but decent breakfast. What are those eggs anyway are they artificial?  Stick to the fruits and breads.  Stayed here for a Christening of my niece and nephew. We used the facilities for the celebrations and they were perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>Love the Staybridge and this Hotel did not disappoint.Excellent staff, nice quiet rooms.  Dull but decent breakfast. What are those eggs anyway are they artificial?  Stick to the fruits and breads.  Stayed here for a Christening of my niece and nephew. We used the facilities for the celebrations and they were perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r215512093-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215512093</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>"Outstanding"</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels aver the past few years and NONE compare. My company put me here and I stayed for 3 months. The staff was the best I have ever seen. If I had an issue with anything, maintanance was there in a very reasonable time and always pleasant even if it was time for them to get off. I never once had a bad experience dealing with anyone there and my room was always cleaned when I got in. I can say that if I ever have the opportunity to stay again, I will definately choose this hotel. It is within 5 miles of anything you could want and is easy to get in and out of. Agian, the best STAFF, and that includes everyone from maintanance to house keeping, I have ever had the pleasure of meeting. The front desk staff is THE BEST and will go out of their way to do anything they can to make you feel at home. I can honestly say that I felt like family there and my hats off to everyone. Stay here and you wont be dissapointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels aver the past few years and NONE compare. My company put me here and I stayed for 3 months. The staff was the best I have ever seen. If I had an issue with anything, maintanance was there in a very reasonable time and always pleasant even if it was time for them to get off. I never once had a bad experience dealing with anyone there and my room was always cleaned when I got in. I can say that if I ever have the opportunity to stay again, I will definately choose this hotel. It is within 5 miles of anything you could want and is easy to get in and out of. Agian, the best STAFF, and that includes everyone from maintanance to house keeping, I have ever had the pleasure of meeting. The front desk staff is THE BEST and will go out of their way to do anything they can to make you feel at home. I can honestly say that I felt like family there and my hats off to everyone. Stay here and you wont be dissapointed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r214587372-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -742,6 +1101,48 @@
     <t>We were impressed with the hotel. The breakfast was amazing- so many options. The front desk was friendly. Definitely staying here again!!! We expected a mediocre hotel for the price. It was a nice surprise.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r195022005-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195022005</t>
+  </si>
+  <si>
+    <t>02/22/2014</t>
+  </si>
+  <si>
+    <t>Well worth staying</t>
+  </si>
+  <si>
+    <t>Stayed here on the first part of our trip to Texas. The hotel is clean and bright, the staff are wonderful, very helpful without being obtrusive.Rooms are clean and well maintained. There is a hot breakfast each morning and they have a number of welcome evenings where they supply a free meal, with drinks, They really go out of their way to make you comfortable.The hotel is located adjacent to the Sam Houston Freeway and a number of toll roads.Not a fault of the hotel, but the toll roads are expensive by the standard of other states we have travelled inMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Stayed here on the first part of our trip to Texas. The hotel is clean and bright, the staff are wonderful, very helpful without being obtrusive.Rooms are clean and well maintained. There is a hot breakfast each morning and they have a number of welcome evenings where they supply a free meal, with drinks, They really go out of their way to make you comfortable.The hotel is located adjacent to the Sam Houston Freeway and a number of toll roads.Not a fault of the hotel, but the toll roads are expensive by the standard of other states we have travelled inMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r192473201-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192473201</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>Great for an extended stay</t>
+  </si>
+  <si>
+    <t>The best part about this Staybridge is the staff. Nothing is too much trouble. Ultra helpful.Typical Staybridge. Pretty basic but very clean and tidy. Nice touch is the Tues-Thurs evening gratis basic buffet and beer, wine and softies from 5.30 to 7.30pm.Pool and basic gym on site.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>The best part about this Staybridge is the staff. Nothing is too much trouble. Ultra helpful.Typical Staybridge. Pretty basic but very clean and tidy. Nice touch is the Tues-Thurs evening gratis basic buffet and beer, wine and softies from 5.30 to 7.30pm.Pool and basic gym on site.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r190389997-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -809,6 +1210,51 @@
   </si>
   <si>
     <t>I have been staying here for a week for work.  The rooms are clean, fairly roomy, and the beds are very comfortable.  I had to take one star away because they could use some updating, but it isn't that bad.  They offer free wifi, have a little gym and swimming pool, are located on a golf course, on-site storage, laundry, and offer a free breakfast and social happy hour.  The best thing I can say about them is the service.  I would have probably shopped around next time in the area, but the front desk girl, Nina, was so accommodating that I will return just for her service.  She helped me move into a better room hassle free and is a joy to see every afternoon.  I would love to write more, but I am here for work, and that is what I must attend to.  I just wanted to take a couple moments to make sure this hotel received its credit due.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r176025707-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176025707</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>Nice Place stay for Apartment Hotel</t>
+  </si>
+  <si>
+    <t>I have been this place in End of July and start of August 2 weeks. It's a pretty good Hotel. The room are clean and good. you have the kitchen and Huge Refrigerator. there are some small fast food place around the corner. but its close to willow brook mall. but you need a car to drive all these places. also there is a Golf place in neighbor hood.  There is no Bar at this Hotel. The Breakfast is Nice.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r171322909-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171322909</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>Has the potential to be so much better.</t>
+  </si>
+  <si>
+    <t>Great lobby, great breakfast, friendly hotel staff. Too bad my hotel room had so many issues (and I'm normally not bothered by "small things" at hotels). But this takes the cake.1. No luggage rack - are you kidding me? I put my suitcase on the floor...2. Stopper broken in shower - so I tilted it sideways so the water could exit the tub.3. A/C unit not functioning properly - woke up in the middle of the night, sweating - set on "cool" but blowing room-temperature air.4. Room phone didn't work when I tried to dial the front desk.5. Internet passcode stopped working on day 3. Was planning on emailing from my room in the morning, but had to on my phone instead.6. Floor 4 hallways reek of smoke - if you don't smoke, ask for levels 1-3. I was disgusted by how strong the smoking odor was in the hallway (and I'm not a smoker).I think that's all. Clean place and great rooms/lobby, but these little things added up and led to an unenjoyable experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Houston-Willowbrook, responded to this reviewResponded August 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2013</t>
+  </si>
+  <si>
+    <t>Great lobby, great breakfast, friendly hotel staff. Too bad my hotel room had so many issues (and I'm normally not bothered by "small things" at hotels). But this takes the cake.1. No luggage rack - are you kidding me? I put my suitcase on the floor...2. Stopper broken in shower - so I tilted it sideways so the water could exit the tub.3. A/C unit not functioning properly - woke up in the middle of the night, sweating - set on "cool" but blowing room-temperature air.4. Room phone didn't work when I tried to dial the front desk.5. Internet passcode stopped working on day 3. Was planning on emailing from my room in the morning, but had to on my phone instead.6. Floor 4 hallways reek of smoke - if you don't smoke, ask for levels 1-3. I was disgusted by how strong the smoking odor was in the hallway (and I'm not a smoker).I think that's all. Clean place and great rooms/lobby, but these little things added up and led to an unenjoyable experience.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r170347341-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
@@ -897,6 +1343,42 @@
     <t>This is the fourth time I'm staying here. I always had good experience. The hotel is clean, the rooms are large with comfortable single double bed, swimming pool, golf club and restaurant.Internet is free and fast. The hotel is 40 minutes from the airport and 50 minutes from down town, depending on traffic. The staff is very friendly and you will have a decent breakfast in the morning. Coffee is good. Any time I came here we had free beers for happy hours between 18 and 19:30. That's is not gonna happen every day but at least 4/7. The hotel store is smal, but you can still find the necessary stuff to survive. There is a store about 2 minutes walking at the petrol station. If you play golf you got a nice club here. The restaurant is just nearby the golf club. The food is not so special, but at least it works in case you are tired and you prefer to stay there.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r157877586-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157877586</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>great suite overlooking golf course</t>
+  </si>
+  <si>
+    <t>This is a typical Staybridge, relatively new, it has ample parking spaces. On a Thursday night it was not full. Spacious room with one king bed, well-equipped kitchen, full-size fridge that could be turned off. Wifi worked well. There is some audible noise from Sam Houston Parkway right in front of the hotel, so try to get a room facing away from the toll road. A car is essential, as there is not much to do in walking distance. Staff at checkin was very friendly. Breakfast had good selection, even raisins and pecans for waffles. Hotel has a mini-library. Overall pleasant stay and would come back here.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a typical Staybridge, relatively new, it has ample parking spaces. On a Thursday night it was not full. Spacious room with one king bed, well-equipped kitchen, full-size fridge that could be turned off. Wifi worked well. There is some audible noise from Sam Houston Parkway right in front of the hotel, so try to get a room facing away from the toll road. A car is essential, as there is not much to do in walking distance. Staff at checkin was very friendly. Breakfast had good selection, even raisins and pecans for waffles. Hotel has a mini-library. Overall pleasant stay and would come back here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r153644157-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153644157</t>
+  </si>
+  <si>
+    <t>03/03/2013</t>
+  </si>
+  <si>
+    <t>Happy with stay</t>
+  </si>
+  <si>
+    <t>Had multiple stays with Staybridge.  Always been happy.  Nice breakfast in the morning, with food and drinks in the evening. Nice spacious room.  Has sitting area and small kitchen.  Staff was very friendly and accomodating.  I would come back for sure.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r153149891-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -912,9 +1394,6 @@
     <t>This hotel is very well situated (right off the beltway on the west side of Houston) and is always clean and professional.  On some of the weekdays (I think Wed and Thurs) they have food and drinks served in the evening.....great get away for the business traveler.</t>
   </si>
   <si>
-    <t>February 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r152168066-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1433,45 @@
     <t>I checked in not knowing much about this hotel.  The front desk person was very friendly and very quick at getting me my room keys.  Just for fun, because it's never worked for me before, I asked if being a Priority Club Member would get me and upgrade...and boy did it!  I was put in a very nice King Suite.  I'm staying for most of the week, so it was so nice having this much room.  The room darkening shades actually do make the room dark and don't gap like other hotel's.  I love the usable kitchen, even though I won't be cooking, I didn't have to work to get my case of water in the much bigger fridge.  It's been fairly quiet and the bed is comfortable.  The breakfast offers a nice selection of choices.  I would definitely recommend this place to others.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r146335346-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146335346</t>
+  </si>
+  <si>
+    <t>11/27/2012</t>
+  </si>
+  <si>
+    <t>2nd trip here-better than the 1st</t>
+  </si>
+  <si>
+    <t>We visit our 5 sons(who are, thankfully, not at home anymore) as often as our schedules allow.  I am fully retired, and Snugglebunny is still attached to her own business(I tell her she let the boys go easier than her company), but we are getting out more and more often as I pry her away from her computer, Ipad, Iphone, ad nauseaum.  So, if you read my last review, you'll appreciate how much we are impressed with this hotel.  The staff(Brice and Cedric,front desk) were very friendly and professional,and our requests were promptly and cheerily attended to.  We think this gem of a hotel is somehow improved over our last stay.  We'll keep our eyes out for more Staybridge affiliated hotels this coming year as we(hopefully) get out of  South Florida more.  CERMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>We visit our 5 sons(who are, thankfully, not at home anymore) as often as our schedules allow.  I am fully retired, and Snugglebunny is still attached to her own business(I tell her she let the boys go easier than her company), but we are getting out more and more often as I pry her away from her computer, Ipad, Iphone, ad nauseaum.  So, if you read my last review, you'll appreciate how much we are impressed with this hotel.  The staff(Brice and Cedric,front desk) were very friendly and professional,and our requests were promptly and cheerily attended to.  We think this gem of a hotel is somehow improved over our last stay.  We'll keep our eyes out for more Staybridge affiliated hotels this coming year as we(hopefully) get out of  South Florida more.  CERMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r140186662-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140186662</t>
+  </si>
+  <si>
+    <t>09/13/2012</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>This hotel has everything you need from self service laundry to an in room kitchenette our room had a door that separates the two double beds from the living room and kitchen each room has it's own flat screen television this hotel is also pet friendly and they only charge a small fee to bring your small pets. The room is very very clean! Breakfast is complimentary to all guests they offer a variety of foods and fruits and coffee is always available at all hours. The gym is very small but gets the job done.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r140029399-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1006,6 +1524,48 @@
   </si>
   <si>
     <t>After trying a variety of hotels in the area I decided 3 years ago that this is the pick of the bunch. Since that time I have been a guest every 2 to 3 months with average stays of 14 consecutive nights. The hotel is spotlessly clean and the rooms are exceptionally comfortable with a wide choice of suite styles. Best of all is the staff, all of whom are true professionals.The hot beakfast buffet makes a great start to the day and the 3 times a week Sundowner Reception makes a welcome change on evenings when one is too tired to go out to eat.  I guess the drawback is they don't have a restaurant but there is an extremely wide choice of places to eat, to suit every conceivable taste, a short drive away.  For those who don't drive there is a golf club next door that serves acceptable food Monday through Saturday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r123886553-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123886553</t>
+  </si>
+  <si>
+    <t>01/30/2012</t>
+  </si>
+  <si>
+    <t>Very nice, very clean, very friendly-great bang for the buck</t>
+  </si>
+  <si>
+    <t>One of our sons recently moved to the Houston area for his career, so mama wanted to see how he was doing.  Though he had plenty of room, we are "Hotel and Resort People", to our many relatives from the frosty North (who, unfortunately, are not) who believe family in Ft Lauderdale(us) means "Book Early".   We have a seemingly never-ending parade of in-laws, brothers, nieces and so on from Thanksgiving through Memorial Day(odd; the places they summer are always way too crowded).  But I digress:  our stay at Staybridge was great; they offer a very nice "continental plus eggs and meat" breakfast daily(complimentary), located right next to a well-kept executive golf course(Heron Lakes), and you get a lower rate as a guest of the hotel!  We were extremely satisfied with this property, and hope our son stays put for a while so we can re-visit Staybridge Suites.   CERMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>One of our sons recently moved to the Houston area for his career, so mama wanted to see how he was doing.  Though he had plenty of room, we are "Hotel and Resort People", to our many relatives from the frosty North (who, unfortunately, are not) who believe family in Ft Lauderdale(us) means "Book Early".   We have a seemingly never-ending parade of in-laws, brothers, nieces and so on from Thanksgiving through Memorial Day(odd; the places they summer are always way too crowded).  But I digress:  our stay at Staybridge was great; they offer a very nice "continental plus eggs and meat" breakfast daily(complimentary), located right next to a well-kept executive golf course(Heron Lakes), and you get a lower rate as a guest of the hotel!  We were extremely satisfied with this property, and hope our son stays put for a while so we can re-visit Staybridge Suites.   CERMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r118178501-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118178501</t>
+  </si>
+  <si>
+    <t>09/15/2011</t>
+  </si>
+  <si>
+    <t>Frequent Business Traveler</t>
+  </si>
+  <si>
+    <t>I stay at this hotel nearly every business trip I take to Houston, every 2-3 weeks.  Usually 2 nights per trip.  Service is usually very good, warm breakfast is a great treat, several room options to choose from, and for me, the location is excellent. Although they do not have a restraunt, they offer a variety of breakfast items.  Also, on Tues-Thurs they offer a Sundowner Reception with free beer, wine, and food.  Not just finger foods/snacks, but each evening they offer salad and 1 main course such as chopped beef sandwiches, spaghetti, hot dogs, chicken tenders, tacos, or something else. They also partner with a local restraunt located on the golf course next door, discounts are offered for hotel guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I stay at this hotel nearly every business trip I take to Houston, every 2-3 weeks.  Usually 2 nights per trip.  Service is usually very good, warm breakfast is a great treat, several room options to choose from, and for me, the location is excellent. Although they do not have a restraunt, they offer a variety of breakfast items.  Also, on Tues-Thurs they offer a Sundowner Reception with free beer, wine, and food.  Not just finger foods/snacks, but each evening they offer salad and 1 main course such as chopped beef sandwiches, spaghetti, hot dogs, chicken tenders, tacos, or something else. They also partner with a local restraunt located on the golf course next door, discounts are offered for hotel guests.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d609502-r117867858-Staybridge_Suites_Houston_Willowbrook-Houston_Texas.html</t>
@@ -1591,10 +2151,14 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1604,10 +2168,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1623,7 +2191,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1632,49 +2200,43 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" t="s">
-        <v>60</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1690,7 +2252,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1699,43 +2261,35 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1751,7 +2305,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1760,39 +2314,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1808,7 +2372,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1817,43 +2381,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>80</v>
-      </c>
-      <c r="X6" t="s">
-        <v>81</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1869,7 +2433,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1878,28 +2442,28 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="n">
@@ -1913,12 +2477,8 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>89</v>
-      </c>
-      <c r="X7" t="s">
-        <v>90</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
         <v>91</v>
       </c>
@@ -1957,13 +2517,13 @@
         <v>96</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1993,54 +2553,48 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>98</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>99</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>100</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>101</v>
       </c>
-      <c r="L9" t="s">
-        <v>102</v>
-      </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -2056,54 +2610,52 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
         <v>104</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>105</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>106</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>107</v>
       </c>
-      <c r="L10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>109</v>
-      </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -2119,7 +2671,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2128,43 +2680,49 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -2180,7 +2738,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2189,45 +2747,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -2243,7 +2795,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2252,35 +2804,35 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2288,7 +2840,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -2304,7 +2856,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2313,47 +2865,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>134</v>
-      </c>
-      <c r="X14" t="s">
-        <v>135</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
@@ -2369,7 +2913,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2378,32 +2922,34 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="n">
         <v>5</v>
       </c>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2414,7 +2960,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
@@ -2430,7 +2976,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2439,43 +2985,45 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
         <v>3</v>
       </c>
-      <c r="N16" t="s">
-        <v>142</v>
-      </c>
-      <c r="O16" t="s">
-        <v>97</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>148</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
         <v>149</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2512,18 +3060,18 @@
         <v>155</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
@@ -2536,7 +3084,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -2552,34 +3100,34 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
         <v>158</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>159</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>160</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>161</v>
       </c>
-      <c r="L18" t="s">
-        <v>162</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>156</v>
-      </c>
       <c r="O18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2593,7 +3141,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -2609,39 +3157,39 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>163</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>164</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>165</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>166</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>167</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>156</v>
-      </c>
       <c r="O19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
@@ -2654,7 +3202,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
@@ -2691,37 +3239,33 @@
         <v>172</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
         <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
       <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>174</v>
-      </c>
-      <c r="X20" t="s">
-        <v>175</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -2737,48 +3281,52 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
         <v>177</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>178</v>
       </c>
-      <c r="J21" t="s">
-        <v>179</v>
-      </c>
-      <c r="K21" t="s">
-        <v>180</v>
-      </c>
-      <c r="L21" t="s">
-        <v>181</v>
-      </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
         <v>173</v>
       </c>
       <c r="O21" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -2794,34 +3342,34 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
         <v>182</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>183</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>184</v>
       </c>
-      <c r="K22" t="s">
-        <v>185</v>
-      </c>
-      <c r="L22" t="s">
-        <v>186</v>
-      </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2833,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="X22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Y22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
@@ -2855,56 +3403,44 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
         <v>191</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>192</v>
       </c>
-      <c r="J23" t="s">
-        <v>193</v>
-      </c>
-      <c r="K23" t="s">
-        <v>194</v>
-      </c>
-      <c r="L23" t="s">
-        <v>195</v>
-      </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
-      <c r="N23" t="s">
-        <v>196</v>
-      </c>
-      <c r="O23" t="s">
-        <v>58</v>
-      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>197</v>
-      </c>
-      <c r="X23" t="s">
-        <v>198</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
@@ -2920,7 +3456,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2929,43 +3465,47 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="X24" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Y24" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
@@ -2981,7 +3521,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2990,32 +3530,32 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J25" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -3023,14 +3563,10 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
         <v>206</v>
-      </c>
-      <c r="X25" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="26">
@@ -3046,7 +3582,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3055,25 +3591,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="O26" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3085,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="X26" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
@@ -3107,58 +3643,52 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>222</v>
+      </c>
+      <c r="X27" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y27" t="s">
         <v>224</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>225</v>
-      </c>
-      <c r="J27" t="s">
-        <v>226</v>
-      </c>
-      <c r="K27" t="s">
-        <v>227</v>
-      </c>
-      <c r="L27" t="s">
-        <v>228</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="s">
-        <v>229</v>
-      </c>
-      <c r="X27" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="28">
@@ -3174,7 +3704,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3183,34 +3713,32 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3218,14 +3746,10 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>237</v>
-      </c>
-      <c r="X28" t="s">
-        <v>238</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29">
@@ -3241,7 +3765,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3250,53 +3774,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K29" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>246</v>
-      </c>
-      <c r="X29" t="s">
-        <v>247</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
@@ -3312,7 +3826,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3321,25 +3835,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="J30" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3350,14 +3864,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>237</v>
-      </c>
-      <c r="X30" t="s">
-        <v>238</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
@@ -3373,7 +3883,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3382,38 +3892,32 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="K31" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3421,14 +3925,10 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>237</v>
-      </c>
-      <c r="X31" t="s">
-        <v>238</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32">
@@ -3444,7 +3944,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3453,38 +3953,32 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="K32" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
         <v>5</v>
       </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3492,14 +3986,10 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>269</v>
-      </c>
-      <c r="X32" t="s">
-        <v>270</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33">
@@ -3515,7 +4005,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3524,53 +4014,35 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="J33" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="K33" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>268</v>
-      </c>
-      <c r="O33" t="s">
-        <v>58</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>277</v>
-      </c>
-      <c r="X33" t="s">
-        <v>278</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34">
@@ -3586,7 +4058,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3595,53 +4067,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="J34" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="K34" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s">
-        <v>68</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="X34" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="Y34" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35">
@@ -3657,7 +4125,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3666,49 +4134,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="J35" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="K35" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="O35" t="s">
-        <v>68</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
@@ -3724,7 +4182,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3733,25 +4191,25 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="J36" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="O36" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3762,10 +4220,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>277</v>
+      </c>
+      <c r="X36" t="s">
+        <v>278</v>
+      </c>
       <c r="Y36" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
@@ -3781,7 +4243,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3790,49 +4252,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="J37" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="K37" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="O37" t="s">
-        <v>68</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>287</v>
+      </c>
+      <c r="X37" t="s">
+        <v>288</v>
+      </c>
       <c r="Y37" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
@@ -3848,7 +4308,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3857,49 +4317,43 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="J38" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="K38" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="O38" t="s">
-        <v>68</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>295</v>
+      </c>
+      <c r="X38" t="s">
+        <v>296</v>
+      </c>
       <c r="Y38" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39">
@@ -3915,7 +4369,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3924,31 +4378,29 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J39" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="K39" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="L39" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="N39" t="s">
+        <v>303</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
         <v>5</v>
       </c>
@@ -3959,10 +4411,14 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>304</v>
+      </c>
+      <c r="X39" t="s">
+        <v>305</v>
+      </c>
       <c r="Y39" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
@@ -3978,7 +4434,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3987,49 +4443,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="O40" t="s">
-        <v>68</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>295</v>
+      </c>
+      <c r="X40" t="s">
+        <v>296</v>
+      </c>
       <c r="Y40" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41">
@@ -4045,7 +4495,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4054,29 +4504,27 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="J41" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="K41" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="O41" t="s">
-        <v>58</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
       <c r="S41" t="n">
@@ -4089,10 +4537,14 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>295</v>
+      </c>
+      <c r="X41" t="s">
+        <v>296</v>
+      </c>
       <c r="Y41" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42">
@@ -4108,7 +4560,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4117,49 +4569,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="J42" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>335</v>
+        <v>60</v>
       </c>
       <c r="L42" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="O42" t="s">
-        <v>68</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
         <v>5</v>
       </c>
       <c r="R42" t="n">
         <v>4</v>
       </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>295</v>
+      </c>
+      <c r="X42" t="s">
+        <v>296</v>
+      </c>
       <c r="Y42" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43">
@@ -4175,7 +4627,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4184,45 +4636,1923 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="J43" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="K43" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="L43" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>331</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
         <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>295</v>
+      </c>
+      <c r="X43" t="s">
+        <v>296</v>
+      </c>
       <c r="Y43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>334</v>
+      </c>
+      <c r="J44" t="s">
+        <v>335</v>
+      </c>
+      <c r="K44" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s">
+        <v>337</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>338</v>
+      </c>
+      <c r="O44" t="s">
+        <v>339</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>295</v>
+      </c>
+      <c r="X44" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>341</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
         <v>342</v>
+      </c>
+      <c r="J45" t="s">
+        <v>343</v>
+      </c>
+      <c r="K45" t="s">
+        <v>344</v>
+      </c>
+      <c r="L45" t="s">
+        <v>345</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>346</v>
+      </c>
+      <c r="X45" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>349</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>350</v>
+      </c>
+      <c r="J46" t="s">
+        <v>351</v>
+      </c>
+      <c r="K46" t="s">
+        <v>352</v>
+      </c>
+      <c r="L46" t="s">
+        <v>353</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>354</v>
+      </c>
+      <c r="X46" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>357</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>358</v>
+      </c>
+      <c r="J47" t="s">
+        <v>359</v>
+      </c>
+      <c r="K47" t="s">
+        <v>360</v>
+      </c>
+      <c r="L47" t="s">
+        <v>361</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>362</v>
+      </c>
+      <c r="O47" t="s">
+        <v>138</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>354</v>
+      </c>
+      <c r="X47" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>364</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>365</v>
+      </c>
+      <c r="J48" t="s">
+        <v>366</v>
+      </c>
+      <c r="K48" t="s">
+        <v>367</v>
+      </c>
+      <c r="L48" t="s">
+        <v>368</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>369</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>354</v>
+      </c>
+      <c r="X48" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>371</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>372</v>
+      </c>
+      <c r="J49" t="s">
+        <v>373</v>
+      </c>
+      <c r="K49" t="s">
+        <v>374</v>
+      </c>
+      <c r="L49" t="s">
+        <v>375</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>376</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>377</v>
+      </c>
+      <c r="X49" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>380</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>381</v>
+      </c>
+      <c r="J50" t="s">
+        <v>382</v>
+      </c>
+      <c r="K50" t="s">
+        <v>383</v>
+      </c>
+      <c r="L50" t="s">
+        <v>384</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>385</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>354</v>
+      </c>
+      <c r="X50" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>387</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>388</v>
+      </c>
+      <c r="J51" t="s">
+        <v>389</v>
+      </c>
+      <c r="K51" t="s">
+        <v>390</v>
+      </c>
+      <c r="L51" t="s">
+        <v>391</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>392</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>354</v>
+      </c>
+      <c r="X51" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>394</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>395</v>
+      </c>
+      <c r="J52" t="s">
+        <v>396</v>
+      </c>
+      <c r="K52" t="s">
+        <v>397</v>
+      </c>
+      <c r="L52" t="s">
+        <v>398</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>399</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>400</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>401</v>
+      </c>
+      <c r="J53" t="s">
+        <v>402</v>
+      </c>
+      <c r="K53" t="s">
+        <v>403</v>
+      </c>
+      <c r="L53" t="s">
+        <v>404</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>405</v>
+      </c>
+      <c r="O53" t="s">
+        <v>286</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>406</v>
+      </c>
+      <c r="X53" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>409</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>410</v>
+      </c>
+      <c r="J54" t="s">
+        <v>411</v>
+      </c>
+      <c r="K54" t="s">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s">
+        <v>413</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>414</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>415</v>
+      </c>
+      <c r="X54" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>418</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>419</v>
+      </c>
+      <c r="J55" t="s">
+        <v>420</v>
+      </c>
+      <c r="K55" t="s">
+        <v>421</v>
+      </c>
+      <c r="L55" t="s">
+        <v>422</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>414</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>423</v>
+      </c>
+      <c r="X55" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>426</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>427</v>
+      </c>
+      <c r="J56" t="s">
+        <v>428</v>
+      </c>
+      <c r="K56" t="s">
+        <v>429</v>
+      </c>
+      <c r="L56" t="s">
+        <v>430</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>431</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>432</v>
+      </c>
+      <c r="X56" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>435</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>436</v>
+      </c>
+      <c r="J57" t="s">
+        <v>437</v>
+      </c>
+      <c r="K57" t="s">
+        <v>438</v>
+      </c>
+      <c r="L57" t="s">
+        <v>439</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>431</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>432</v>
+      </c>
+      <c r="X57" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>441</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>442</v>
+      </c>
+      <c r="J58" t="s">
+        <v>443</v>
+      </c>
+      <c r="K58" t="s">
+        <v>444</v>
+      </c>
+      <c r="L58" t="s">
+        <v>445</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>446</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>447</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>448</v>
+      </c>
+      <c r="J59" t="s">
+        <v>449</v>
+      </c>
+      <c r="K59" t="s">
+        <v>450</v>
+      </c>
+      <c r="L59" t="s">
+        <v>451</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>446</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>452</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>453</v>
+      </c>
+      <c r="J60" t="s">
+        <v>454</v>
+      </c>
+      <c r="K60" t="s">
+        <v>455</v>
+      </c>
+      <c r="L60" t="s">
+        <v>456</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>457</v>
+      </c>
+      <c r="O60" t="s">
+        <v>138</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>458</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>459</v>
+      </c>
+      <c r="J61" t="s">
+        <v>460</v>
+      </c>
+      <c r="K61" t="s">
+        <v>461</v>
+      </c>
+      <c r="L61" t="s">
+        <v>462</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>463</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>465</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>466</v>
+      </c>
+      <c r="J62" t="s">
+        <v>467</v>
+      </c>
+      <c r="K62" t="s">
+        <v>468</v>
+      </c>
+      <c r="L62" t="s">
+        <v>469</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>470</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>472</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>473</v>
+      </c>
+      <c r="J63" t="s">
+        <v>474</v>
+      </c>
+      <c r="K63" t="s">
+        <v>475</v>
+      </c>
+      <c r="L63" t="s">
+        <v>476</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>477</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>478</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>479</v>
+      </c>
+      <c r="J64" t="s">
+        <v>480</v>
+      </c>
+      <c r="K64" t="s">
+        <v>481</v>
+      </c>
+      <c r="L64" t="s">
+        <v>482</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>483</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>484</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>485</v>
+      </c>
+      <c r="J65" t="s">
+        <v>486</v>
+      </c>
+      <c r="K65" t="s">
+        <v>487</v>
+      </c>
+      <c r="L65" t="s">
+        <v>488</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>489</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>490</v>
+      </c>
+      <c r="J66" t="s">
+        <v>491</v>
+      </c>
+      <c r="K66" t="s">
+        <v>492</v>
+      </c>
+      <c r="L66" t="s">
+        <v>493</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>494</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>496</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>497</v>
+      </c>
+      <c r="J67" t="s">
+        <v>498</v>
+      </c>
+      <c r="K67" t="s">
+        <v>499</v>
+      </c>
+      <c r="L67" t="s">
+        <v>500</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>501</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>503</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>504</v>
+      </c>
+      <c r="J68" t="s">
+        <v>505</v>
+      </c>
+      <c r="K68" t="s">
+        <v>506</v>
+      </c>
+      <c r="L68" t="s">
+        <v>507</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>508</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>510</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>511</v>
+      </c>
+      <c r="J69" t="s">
+        <v>512</v>
+      </c>
+      <c r="K69" t="s">
+        <v>513</v>
+      </c>
+      <c r="L69" t="s">
+        <v>514</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>515</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>516</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>517</v>
+      </c>
+      <c r="J70" t="s">
+        <v>518</v>
+      </c>
+      <c r="K70" t="s">
+        <v>519</v>
+      </c>
+      <c r="L70" t="s">
+        <v>520</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>521</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54112</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>522</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>523</v>
+      </c>
+      <c r="J71" t="s">
+        <v>524</v>
+      </c>
+      <c r="K71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L71" t="s">
+        <v>526</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
